--- a/biology/Botanique/Leycesteria/Leycesteria.xlsx
+++ b/biology/Botanique/Leycesteria/Leycesteria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leycesteria est un genre d'arbustes originaires d'Asie de la famille des Caprifoliacées.
 Nom chinois : 鬼吹箫属
@@ -512,7 +524,9 @@
           <t>Description[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'arbustes caducs, aux feuilles opposées.
 Les inflorescences sont des cymes bipares, pendantes, à l'aisselle des feuilles.
@@ -547,7 +561,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre est principalement localisé dans la sous-continent indien - Inde, Népal - et en Chine.
 L'usage ornemental principalement de Leycesteria formosa l'a répandu à l'ensemble des pays à climat tempéré.
@@ -579,7 +595,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une utilisation alimentaire des fruits est signalée. 
 Le bois peut aussi servir à la confection d'instruments type flutes.
@@ -612,7 +630,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La liste des espèces a été constituée à partir des index Tropicos (index du jardin botanique du Missouri) et IPNI (The International Plant Names Index) à la date de juin 2012. Les espèces conservées sont en caractères gras :
 Leycesteria belliana W.W.Sm. (1909)
@@ -659,10 +679,12 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nathaniel Wallich décrit le genre en 1824, avec une unique première espèce Leycesteria formosa[2]. Le nom du genre est une dédicace à William Leycester, juge à la cour indigène au Bengale.
-En 1891, Karl Fritsch décompose le genre en deux sections[3] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nathaniel Wallich décrit le genre en 1824, avec une unique première espèce Leycesteria formosa. Le nom du genre est une dédicace à William Leycester, juge à la cour indigène au Bengale.
+En 1891, Karl Fritsch décompose le genre en deux sections : 
 Euleycesteria Fritsch avec Leycesteria formosa et Leycesteria glaucophylla
 Pentapyxis (Hook.f. ex C.B.Clarke) Fritsch avec Leycesteria stipulata (Hook.f. &amp; Thomson) Fritsch
 Ce genre est classé dans la sous-famille des Caprifolioideae de la famille des Caprifoliacées
